--- a/data/2/20230608-a1r-nc-session2-b_transcript.xlsx
+++ b/data/2/20230608-a1r-nc-session2-b_transcript.xlsx
@@ -1,252 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marlibosler/Desktop/Session 2/EXCEL 06:08 session 2/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE7F350-59B0-374E-8EF4-DF5516A8162A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="15960" windowHeight="16420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="15960" windowHeight="16420" tabRatio="600" firstSheet="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - 20230608-a1r-nc-sessi" sheetId="1" r:id="rId1"/>
-    <sheet name="proposal" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="in" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>"2:20"</t>
-  </si>
-  <si>
-    <t>I'm Terry my second night and I'm from Kalamazoo Michigan. 59 years old, I'm a Republican.</t>
-  </si>
-  <si>
-    <t>"10:51"</t>
-  </si>
-  <si>
-    <t>This isn't my strong suit but I did read the information that they sent us in the folder so I will leave it at that for them.</t>
-  </si>
-  <si>
-    <t>"11:04"</t>
-  </si>
-  <si>
-    <t>Yeah, I kind of echo that it's just kind of complicated and I try to read it from time to time. This isn't my first time hearing about all these words. But</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Yeah, it's just kind of hard to digest.</t>
-  </si>
-  <si>
-    <t>"11:25"</t>
-  </si>
-  <si>
-    <t>I feel that the party leaders already have too much control over. What goes on it were allowing a few people to make them decision for most people instead of the majority. We don't need to give Party leaders. Any more influence over, what goes on there then you'll be even more conspiring and, and collusion and Corruption.</t>
-  </si>
-  <si>
-    <t>"13:08"</t>
-  </si>
-  <si>
-    <t>I think and I'm not strongly supporting this or anything, but I think the getting rid of the Electoral College makes sense and going to just the popular vote at this time, I think I know that I'm from California and</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> it's like one of the most populous states but at the end I think like some tiny state in the midwest or something could kind of decide the</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The fate of the nation at the end of the day, so maybe popular boat makes sense.</t>
-  </si>
-  <si>
-    <t>"13:50"</t>
-  </si>
-  <si>
-    <t>Yeah, I agree with David. I think the Electoral College seems a little confusing to me and to keep it simple. It seems like the just most popular vote seems to be the way to go, and I'm still confused about the right choice. Voting to add all that in there as well.</t>
-  </si>
-  <si>
-    <t>"14:10"</t>
-  </si>
-  <si>
-    <t>No, the choices that are given to us, using the popular vote is the best option of what they've chosen to give us to think about.</t>
-  </si>
-  <si>
-    <t>"14:22"</t>
-  </si>
-  <si>
-    <t>Yeah, I feel like we should give it back to her College because like, you know, they're out of years in school. Do I see about democracy? So, it's for the people. But then, like whatever, you know, the popular vote comes in and then Electoral College votes, it's just a different. But the winner is different than how the popular vote. So I feel like it's not fair affect even, we just stick to the popular votes and just, you know, eliminate the Electoral College.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ouch.</t>
-  </si>
-  <si>
-    <t>"14:55"</t>
-  </si>
-  <si>
-    <t>I would also say that I'd like to see the Electoral College abolished, I think it's the best way to make. Sure everybody has an equal Voice by making all votes way the same and including a popular vote and place I think is the best way as well.</t>
-  </si>
-  <si>
-    <t>"16:07"</t>
-  </si>
-  <si>
-    <t>I think that the idea is that the waters are too muddy here and there's too many legalities to go ahead and get on board with this situation and so I'm against it.</t>
-  </si>
-  <si>
-    <t>"16:27"</t>
-  </si>
-  <si>
-    <t>I think better option would be enough to have each State's Electoral College votes. Be a percentage of that state popular vote. You know if your state gets 20 Electoral College votes and one candidate wins 60% and the other one went 40 percent then the delegates should be divided that way, not all of them in one state for whoever wins.</t>
-  </si>
-  <si>
-    <t>"18:36"</t>
-  </si>
-  <si>
-    <t>I don't think tank in the number of justices, really matters as much as going to be how long they can be on their, you know, it doesn't matter if you got three of them, seven of them, 21 of them, nine of them, it's all going to work. The same expertise live in lifetime. Appointments are going to do the same thing. The only way to fix the Supreme Court is to limit how long the justices can be on it and 18 years needs things too long to should be six years at the most</t>
-  </si>
-  <si>
-    <t>"19:09"</t>
-  </si>
-  <si>
-    <t>Yeah, I think the nine is fine. I don't think we need more than we're just going to have more you know, confirmation hearings and all that. And that's just imagine watching that every day almost you know, when they pass away or get a new one so nine or maybe even seven is probably fine or five, you know there's some odd number and yeah, I think limiting terms</t>
-  </si>
-  <si>
-    <t>I don't know where the 18 years comes from, but you know, that's probably better than lifetime. That seems reasonable.</t>
-  </si>
-  <si>
-    <t>"19:44"</t>
-  </si>
-  <si>
-    <t>I don't think any office in our White House, you'd be lifetime.</t>
-  </si>
-  <si>
-    <t>I think they got that, right. I think nine is a right number to go so there's never a lock. So I think they're on the right track with that 18 too much. I don't think anybody should get comfortable with their job, so I think they should keep it down.</t>
-  </si>
-  <si>
-    <t>18 seems too much.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> So I want everybody to think that they really need to stay on the ball and do their job. So I think they should keep the number down.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Nine's, a good number.</t>
-  </si>
-  <si>
-    <t>"20:30"</t>
-  </si>
-  <si>
-    <t>Yeah, I agree as well. I think the nine justices is a good number and even the 18-year term seems Seems long to me, considering the presidential term is only four years. But yeah, I think definitely lower that as well.</t>
-  </si>
-  <si>
-    <t>"20:45"</t>
-  </si>
-  <si>
-    <t>I think it makes sense to have the terms in factored by the four-year residential term. So I think maybe 16 years could make sense just to I think make it more Equitable between the parties</t>
-  </si>
-  <si>
-    <t>"22:30"</t>
-  </si>
-  <si>
-    <t>I think we should have more specific education.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> In our high school level. I think that's been lost. I think it needs to be returned. I'll say that much.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> And I'll leave it at that.</t>
-  </si>
-  <si>
-    <t>"23:03"</t>
-  </si>
-  <si>
-    <t>I think civic education can be helpful and bringing people out, especially young people to the polls and making sure that they're trying to, at least make it more prevalent for people to be interested in politics at a national level.</t>
-  </si>
-  <si>
-    <t>"28:41"</t>
-  </si>
-  <si>
-    <t>I asked the question because I want to know if it's it if it's ever been changed.</t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>proposal</t>
-  </si>
-  <si>
-    <t>Implement RCV as an alternative method both to elected officials and representatives at all levels</t>
-  </si>
-  <si>
-    <t>Change the primary system</t>
-  </si>
-  <si>
-    <t>Use proportional representatives to elect elected officials</t>
-  </si>
-  <si>
-    <t>Change the current electoral college</t>
-  </si>
-  <si>
-    <t>Implement more accessibility to voting</t>
-  </si>
-  <si>
-    <t>Restore federal and state voting rights to citizens with felony convictions upon their release from prison</t>
-  </si>
-  <si>
-    <t>Implement voting standards that are less strict</t>
-  </si>
-  <si>
-    <t>Implement more measures to address voter fraud</t>
-  </si>
-  <si>
-    <t>Implement more fairness and transparency in the election process</t>
-  </si>
-  <si>
-    <t>Implement limits on financing individual candidates and parties</t>
-  </si>
-  <si>
-    <t>Increase in public funding and financing for campaigns</t>
-  </si>
-  <si>
-    <t>Implement a term limit for Supreme Court Justices</t>
-  </si>
-  <si>
-    <t>Increase opportunities for learning about civic education in schools</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
+      <name val="Helvetica Neue"/>
+      <color indexed="8"/>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color indexed="8"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -322,44 +113,44 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -428,14 +219,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1510,518 +1293,579 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IS38"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="166.6640625" style="1" customWidth="1"/>
-    <col min="4" max="253" width="8.33203125" style="1" customWidth="1"/>
+    <col width="6.1640625" customWidth="1" style="1" min="1" max="1"/>
+    <col width="7" customWidth="1" style="1" min="2" max="2"/>
+    <col width="166.6640625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="8.33203125" customWidth="1" style="1" min="4" max="253"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4">
+    <row r="1" ht="20.25" customHeight="1" s="9">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>speaker</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="20" customHeight="1" s="9">
+      <c r="A2" s="4" t="n">
         <v>48616</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4">
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>"2:20"</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>I'm Terry my second night and I'm from Kalamazoo Michigan. 59 years old, I'm a Republican.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="20" customHeight="1" s="9">
+      <c r="A3" s="4" t="n">
         <v>48616</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>"2:20"</t>
+        </is>
+      </c>
+      <c r="C3" s="6" t="n"/>
+    </row>
+    <row r="4" ht="20" customHeight="1" s="9">
+      <c r="A4" s="4" t="n">
         <v>48616</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4">
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>"10:51"</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="n"/>
+    </row>
+    <row r="5" ht="20" customHeight="1" s="9">
+      <c r="A5" s="4" t="n">
         <v>48616</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>"10:51"</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>This isn't my strong suit but I did read the information that they sent us in the folder so I will leave it at that for them.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1" s="9">
+      <c r="A6" s="4" t="n">
         <v>10406</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4">
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>"11:04"</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, I kind of echo that it's just kind of complicated and I try to read it from time to time. This isn't my first time hearing about all these words. But</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1" s="9">
+      <c r="A7" s="4" t="n">
         <v>10406</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>"11:04"</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Yeah, it's just kind of hard to digest.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1" s="9">
+      <c r="A8" s="4" t="n">
         <v>48692</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4">
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>"11:25"</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>I feel that the party leaders already have too much control over. What goes on it were allowing a few people to make them decision for most people instead of the majority. We don't need to give Party leaders. Any more influence over, what goes on there then you'll be even more conspiring and, and collusion and Corruption.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1" s="9">
+      <c r="A9" s="4" t="n">
         <v>48692</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>"11:25"</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n"/>
+    </row>
+    <row r="10" ht="20" customHeight="1" s="9">
+      <c r="A10" s="4" t="n">
         <v>10406</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="4">
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>"13:08"</t>
+        </is>
+      </c>
+      <c r="C10" s="6" t="n"/>
+    </row>
+    <row r="11" ht="20" customHeight="1" s="9">
+      <c r="A11" s="4" t="n">
         <v>10406</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>"13:08"</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>I think and I'm not strongly supporting this or anything, but I think the getting rid of the Electoral College makes sense and going to just the popular vote at this time, I think I know that I'm from California and</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1" s="9">
+      <c r="A12" s="4" t="n">
         <v>10406</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="4">
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>"13:08"</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> it's like one of the most populous states but at the end I think like some tiny state in the midwest or something could kind of decide the</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1" s="9">
+      <c r="A13" s="4" t="n">
         <v>10406</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="4">
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>"13:08"</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> The fate of the nation at the end of the day, so maybe popular boat makes sense.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1" s="9">
+      <c r="A14" s="4" t="n">
         <v>48622</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="4">
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>"13:50"</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, I agree with David. I think the Electoral College seems a little confusing to me and to keep it simple. It seems like the just most popular vote seems to be the way to go, and I'm still confused about the right choice. Voting to add all that in there as well.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1" s="9">
+      <c r="A15" s="4" t="n">
         <v>48692</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="4">
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>"14:10"</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n"/>
+    </row>
+    <row r="16" ht="20" customHeight="1" s="9">
+      <c r="A16" s="4" t="n">
         <v>48692</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="4">
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>"14:10"</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>No, the choices that are given to us, using the popular vote is the best option of what they've chosen to give us to think about.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1" s="9">
+      <c r="A17" s="4" t="n">
         <v>48670</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="4">
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>"14:22"</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, I feel like we should give it back to her College because like, you know, they're out of years in school. Do I see about democracy? So, it's for the people. But then, like whatever, you know, the popular vote comes in and then Electoral College votes, it's just a different. But the winner is different than how the popular vote. So I feel like it's not fair affect even, we just stick to the popular votes and just, you know, eliminate the Electoral College.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="20" customHeight="1" s="9">
+      <c r="A18" s="4" t="n">
         <v>48670</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="4">
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>"14:22"</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ouch.</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="20" customHeight="1" s="9">
+      <c r="A19" s="4" t="n">
         <v>48746</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4">
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>"14:55"</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="inlineStr">
+        <is>
+          <t>I would also say that I'd like to see the Electoral College abolished, I think it's the best way to make. Sure everybody has an equal Voice by making all votes way the same and including a popular vote and place I think is the best way as well.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="20" customHeight="1" s="9">
+      <c r="A20" s="4" t="n">
         <v>48616</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4">
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>"16:07"</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n"/>
+    </row>
+    <row r="21" ht="20" customHeight="1" s="9">
+      <c r="A21" s="4" t="n">
         <v>48616</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="4">
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>"16:07"</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="inlineStr">
+        <is>
+          <t>I think that the idea is that the waters are too muddy here and there's too many legalities to go ahead and get on board with this situation and so I'm against it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="20" customHeight="1" s="9">
+      <c r="A22" s="4" t="n">
         <v>48692</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="4">
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>"16:27"</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="inlineStr">
+        <is>
+          <t>I think better option would be enough to have each State's Electoral College votes. Be a percentage of that state popular vote. You know if your state gets 20 Electoral College votes and one candidate wins 60% and the other one went 40 percent then the delegates should be divided that way, not all of them in one state for whoever wins.</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="1" s="9">
+      <c r="A23" s="4" t="n">
         <v>48692</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="4">
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>"18:36"</t>
+        </is>
+      </c>
+      <c r="C23" s="6" t="n"/>
+    </row>
+    <row r="24" ht="20" customHeight="1" s="9">
+      <c r="A24" s="4" t="n">
         <v>48692</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="4">
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>"18:36"</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>I don't think tank in the number of justices, really matters as much as going to be how long they can be on their, you know, it doesn't matter if you got three of them, seven of them, 21 of them, nine of them, it's all going to work. The same expertise live in lifetime. Appointments are going to do the same thing. The only way to fix the Supreme Court is to limit how long the justices can be on it and 18 years needs things too long to should be six years at the most</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="20" customHeight="1" s="9">
+      <c r="A25" s="4" t="n">
         <v>10406</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="4">
+      <c r="B25" s="5" t="inlineStr">
+        <is>
+          <t>"19:09"</t>
+        </is>
+      </c>
+      <c r="C25" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, I think the nine is fine. I don't think we need more than we're just going to have more you know, confirmation hearings and all that. And that's just imagine watching that every day almost you know, when they pass away or get a new one so nine or maybe even seven is probably fine or five, you know there's some odd number and yeah, I think limiting terms</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="20" customHeight="1" s="9">
+      <c r="A26" s="4" t="n">
         <v>10406</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="4">
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t>"19:09"</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>I don't know where the 18 years comes from, but you know, that's probably better than lifetime. That seems reasonable.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="20" customHeight="1" s="9">
+      <c r="A27" s="4" t="n">
         <v>48616</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="4">
+      <c r="B27" s="5" t="inlineStr">
+        <is>
+          <t>"19:44"</t>
+        </is>
+      </c>
+      <c r="C27" s="5" t="inlineStr">
+        <is>
+          <t>I don't think any office in our White House, you'd be lifetime.</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="20" customHeight="1" s="9">
+      <c r="A28" s="4" t="n">
         <v>48616</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="4">
+      <c r="B28" s="5" t="inlineStr">
+        <is>
+          <t>"19:44"</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>I think they got that, right. I think nine is a right number to go so there's never a lock. So I think they're on the right track with that 18 too much. I don't think anybody should get comfortable with their job, so I think they should keep it down.</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="20" customHeight="1" s="9">
+      <c r="A29" s="4" t="n">
         <v>48616</v>
       </c>
-      <c r="B29" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="4">
+      <c r="B29" s="5" t="inlineStr">
+        <is>
+          <t>"19:44"</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>18 seems too much.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="20" customHeight="1" s="9">
+      <c r="A30" s="4" t="n">
         <v>48616</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="4">
+      <c r="B30" s="5" t="inlineStr">
+        <is>
+          <t>"19:44"</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> So I want everybody to think that they really need to stay on the ball and do their job. So I think they should keep the number down.</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="20" customHeight="1" s="9">
+      <c r="A31" s="4" t="n">
         <v>48616</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="4">
+      <c r="B31" s="5" t="inlineStr">
+        <is>
+          <t>"19:44"</t>
+        </is>
+      </c>
+      <c r="C31" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Nine's, a good number.</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="20" customHeight="1" s="9">
+      <c r="A32" s="4" t="n">
         <v>48622</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="4">
+      <c r="B32" s="5" t="inlineStr">
+        <is>
+          <t>"20:30"</t>
+        </is>
+      </c>
+      <c r="C32" s="5" t="inlineStr">
+        <is>
+          <t>Yeah, I agree as well. I think the nine justices is a good number and even the 18-year term seems Seems long to me, considering the presidential term is only four years. But yeah, I think definitely lower that as well.</t>
+        </is>
+      </c>
+    </row>
+    <row r="33" ht="20" customHeight="1" s="9">
+      <c r="A33" s="4" t="n">
         <v>48746</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="4">
+      <c r="B33" s="5" t="inlineStr">
+        <is>
+          <t>"20:45"</t>
+        </is>
+      </c>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>I think it makes sense to have the terms in factored by the four-year residential term. So I think maybe 16 years could make sense just to I think make it more Equitable between the parties</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="20" customHeight="1" s="9">
+      <c r="A34" s="4" t="n">
         <v>48616</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="4">
+      <c r="B34" s="5" t="inlineStr">
+        <is>
+          <t>"22:30"</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="inlineStr">
+        <is>
+          <t>I think we should have more specific education.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35" ht="20" customHeight="1" s="9">
+      <c r="A35" s="4" t="n">
         <v>48616</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="4">
+      <c r="B35" s="5" t="inlineStr">
+        <is>
+          <t>"22:30"</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> In our high school level. I think that's been lost. I think it needs to be returned. I'll say that much.</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="20" customHeight="1" s="9">
+      <c r="A36" s="4" t="n">
         <v>48616</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="4">
+      <c r="B36" s="5" t="inlineStr">
+        <is>
+          <t>"22:30"</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> And I'll leave it at that.</t>
+        </is>
+      </c>
+    </row>
+    <row r="37" ht="20" customHeight="1" s="9">
+      <c r="A37" s="4" t="n">
         <v>48746</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="4">
+      <c r="B37" s="5" t="inlineStr">
+        <is>
+          <t>"23:03"</t>
+        </is>
+      </c>
+      <c r="C37" s="5" t="inlineStr">
+        <is>
+          <t>I think civic education can be helpful and bringing people out, especially young people to the polls and making sure that they're trying to, at least make it more prevalent for people to be interested in politics at a national level.</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="20" customHeight="1" s="9">
+      <c r="A38" s="4" t="n">
         <v>48616</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>49</v>
+      <c r="B38" s="5" t="inlineStr">
+        <is>
+          <t>"28:41"</t>
+        </is>
+      </c>
+      <c r="C38" s="5" t="inlineStr">
+        <is>
+          <t>I asked the question because I want to know if it's it if it's ever been changed.</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12 &amp;K000000&amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBC1EFA-2C22-544B-8B9C-BA59762871BA}">
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A7" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/2/20230608-a1r-nc-session2-b_transcript.xlsx
+++ b/data/2/20230608-a1r-nc-session2-b_transcript.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="15960" windowHeight="16420" tabRatio="600" firstSheet="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="15960" windowHeight="16420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="in" sheetId="1" state="visible" r:id="rId1"/>
